--- a/stage2_excels/PD/PD_kfold_two.xlsx
+++ b/stage2_excels/PD/PD_kfold_two.xlsx
@@ -463,14 +463,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>luv_l_percentile_75</t>
+          <t>xyz_x_75</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7966812247225128</v>
+        <v>0.715865909213366</v>
       </c>
     </row>
     <row r="3">
@@ -481,56 +481,56 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>xyz_x_percentile_75</t>
+          <t>lab_l_75</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7158659092132981</v>
+        <v>0.7081313233872198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>hsv_v_median</t>
+          <t>lab_l_25</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>lab_l_percentile_75</t>
+          <t>xyz_z_median</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7081313233873332</v>
+        <v>0.6657074068832468</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lab_b_std_dev</t>
+          <t>hsv_v_median</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>luv_u_percentile_75</t>
+          <t>xyz_y_75</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6876067048838678</v>
+        <v>0.6218798508101073</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>lab_l_percentile_25</t>
+          <t>hsv_v_25</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -542,7 +542,7 @@
         <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6657074064727848</v>
+        <v>0.5636064823873503</v>
       </c>
     </row>
   </sheetData>
